--- a/Lavoro.xlsx
+++ b/Lavoro.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsrizzoli-my.sharepoint.com/personal/william_santeramo_itsrizzoli_it/Documents/Documenti/UFS/07 programmazione R/PROGETTO/R-Artigiani/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_71F4A6237FFB0BBDC911F705B37B5DEA4A01FE93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0A5077-D37C-4D7C-B09F-DC6F89732101}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="3RyLzBock9FB/ItV5NZ7tpSwGtWU+Dms4N3kSDarsZw="/>
@@ -1332,21 +1341,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1357,43 +1367,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1583,26 +1597,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="95.57"/>
-    <col customWidth="1" min="4" max="4" width="25.86"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="95.54296875" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1654,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1648,11 +1664,11 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1662,11 +1678,11 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1676,11 +1692,11 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1690,11 +1706,11 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1704,11 +1720,11 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1718,11 +1734,11 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1732,11 +1748,11 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1746,11 +1762,11 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1760,11 +1776,11 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1774,11 +1790,11 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1788,11 +1804,11 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1802,11 +1818,11 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1816,11 +1832,11 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1830,11 +1846,11 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1844,11 +1860,11 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1858,11 +1874,11 @@
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1872,11 +1888,11 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1886,11 +1902,11 @@
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1900,11 +1916,11 @@
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1914,11 +1930,11 @@
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="D21" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1928,11 +1944,11 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1942,11 +1958,11 @@
       <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -1956,11 +1972,11 @@
       <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1970,11 +1986,11 @@
       <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1984,11 +2000,11 @@
       <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -1998,11 +2014,11 @@
       <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2012,11 +2028,11 @@
       <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -2026,11 +2042,11 @@
       <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -2040,11 +2056,11 @@
       <c r="C30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -2054,11 +2070,11 @@
       <c r="C31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -2068,11 +2084,11 @@
       <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -2082,11 +2098,11 @@
       <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -2096,11 +2112,11 @@
       <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -2110,11 +2126,11 @@
       <c r="C35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
@@ -2124,11 +2140,11 @@
       <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
@@ -2138,11 +2154,11 @@
       <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>77</v>
       </c>
@@ -2152,11 +2168,11 @@
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+      <c r="D38" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -2166,11 +2182,11 @@
       <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
@@ -2180,11 +2196,11 @@
       <c r="C40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
@@ -2194,11 +2210,11 @@
       <c r="C41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -2208,11 +2224,11 @@
       <c r="C42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -2222,11 +2238,11 @@
       <c r="C43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>89</v>
       </c>
@@ -2236,11 +2252,11 @@
       <c r="C44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>91</v>
       </c>
@@ -2250,11 +2266,11 @@
       <c r="C45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+      <c r="D45" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>93</v>
       </c>
@@ -2264,11 +2280,11 @@
       <c r="C46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -2278,11 +2294,11 @@
       <c r="C47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
@@ -2292,11 +2308,11 @@
       <c r="C48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>99</v>
       </c>
@@ -2306,11 +2322,11 @@
       <c r="C49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+      <c r="D49" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>101</v>
       </c>
@@ -2320,11 +2336,11 @@
       <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+      <c r="D50" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
@@ -2334,11 +2350,11 @@
       <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>105</v>
       </c>
@@ -2348,11 +2364,11 @@
       <c r="C52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+      <c r="D52" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -2362,11 +2378,11 @@
       <c r="C53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>110</v>
       </c>
@@ -2376,11 +2392,11 @@
       <c r="C54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>112</v>
       </c>
@@ -2390,11 +2406,11 @@
       <c r="C55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>114</v>
       </c>
@@ -2404,11 +2420,11 @@
       <c r="C56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+      <c r="D56" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>116</v>
       </c>
@@ -2418,11 +2434,11 @@
       <c r="C57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
@@ -2432,11 +2448,11 @@
       <c r="C58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>120</v>
       </c>
@@ -2446,11 +2462,11 @@
       <c r="C59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>122</v>
       </c>
@@ -2460,11 +2476,11 @@
       <c r="C60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>124</v>
       </c>
@@ -2474,11 +2490,11 @@
       <c r="C61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>126</v>
       </c>
@@ -2488,11 +2504,11 @@
       <c r="C62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>128</v>
       </c>
@@ -2502,11 +2518,11 @@
       <c r="C63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>130</v>
       </c>
@@ -2516,11 +2532,11 @@
       <c r="C64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>132</v>
       </c>
@@ -2530,11 +2546,11 @@
       <c r="C65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>134</v>
       </c>
@@ -2544,11 +2560,11 @@
       <c r="C66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+      <c r="D66" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -2558,11 +2574,11 @@
       <c r="C67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>138</v>
       </c>
@@ -2572,11 +2588,11 @@
       <c r="C68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+      <c r="D68" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -2586,11 +2602,11 @@
       <c r="C69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -2600,11 +2616,11 @@
       <c r="C70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
@@ -2614,11 +2630,11 @@
       <c r="C71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>146</v>
       </c>
@@ -2628,11 +2644,11 @@
       <c r="C72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>148</v>
       </c>
@@ -2642,11 +2658,11 @@
       <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+      <c r="D73" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>150</v>
       </c>
@@ -2656,11 +2672,11 @@
       <c r="C74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>152</v>
       </c>
@@ -2670,11 +2686,11 @@
       <c r="C75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+      <c r="D75" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
@@ -2684,11 +2700,11 @@
       <c r="C76" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>156</v>
       </c>
@@ -2698,11 +2714,11 @@
       <c r="C77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+      <c r="D77" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>158</v>
       </c>
@@ -2712,11 +2728,11 @@
       <c r="C78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>160</v>
       </c>
@@ -2726,11 +2742,11 @@
       <c r="C79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>162</v>
       </c>
@@ -2740,11 +2756,11 @@
       <c r="C80" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>164</v>
       </c>
@@ -2754,11 +2770,11 @@
       <c r="C81" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>166</v>
       </c>
@@ -2768,11 +2784,11 @@
       <c r="C82" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D82" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+      <c r="D82" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -2782,11 +2798,11 @@
       <c r="C83" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>170</v>
       </c>
@@ -2796,11 +2812,11 @@
       <c r="C84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
@@ -2810,11 +2826,11 @@
       <c r="C85" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+      <c r="D85" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>174</v>
       </c>
@@ -2824,11 +2840,11 @@
       <c r="C86" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>176</v>
       </c>
@@ -2838,11 +2854,11 @@
       <c r="C87" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D87" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>178</v>
       </c>
@@ -2852,11 +2868,11 @@
       <c r="C88" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>180</v>
       </c>
@@ -2866,11 +2882,11 @@
       <c r="C89" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D89" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>182</v>
       </c>
@@ -2880,11 +2896,11 @@
       <c r="C90" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+      <c r="D90" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>184</v>
       </c>
@@ -2894,11 +2910,11 @@
       <c r="C91" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+      <c r="D91" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>186</v>
       </c>
@@ -2908,11 +2924,11 @@
       <c r="C92" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D92" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>188</v>
       </c>
@@ -2922,11 +2938,11 @@
       <c r="C93" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>190</v>
       </c>
@@ -2936,11 +2952,11 @@
       <c r="C94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>192</v>
       </c>
@@ -2950,11 +2966,11 @@
       <c r="C95" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>194</v>
       </c>
@@ -2964,11 +2980,11 @@
       <c r="C96" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D96" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>196</v>
       </c>
@@ -2978,11 +2994,11 @@
       <c r="C97" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D97" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>198</v>
       </c>
@@ -2992,11 +3008,11 @@
       <c r="C98" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D98" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>200</v>
       </c>
@@ -3006,11 +3022,11 @@
       <c r="C99" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D99" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>202</v>
       </c>
@@ -3020,11 +3036,11 @@
       <c r="C100" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+      <c r="D100" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>204</v>
       </c>
@@ -3034,11 +3050,11 @@
       <c r="C101" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+      <c r="D101" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>206</v>
       </c>
@@ -3048,11 +3064,11 @@
       <c r="C102" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+      <c r="D102" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>209</v>
       </c>
@@ -3062,11 +3078,11 @@
       <c r="C103" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>211</v>
       </c>
@@ -3076,11 +3092,11 @@
       <c r="C104" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D104" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>213</v>
       </c>
@@ -3090,11 +3106,11 @@
       <c r="C105" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D105" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>215</v>
       </c>
@@ -3104,11 +3120,11 @@
       <c r="C106" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D106" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+      <c r="D106" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>217</v>
       </c>
@@ -3118,11 +3134,11 @@
       <c r="C107" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D107" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>219</v>
       </c>
@@ -3132,11 +3148,11 @@
       <c r="C108" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D108" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>221</v>
       </c>
@@ -3146,11 +3162,11 @@
       <c r="C109" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D109" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>223</v>
       </c>
@@ -3160,11 +3176,11 @@
       <c r="C110" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+      <c r="D110" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>225</v>
       </c>
@@ -3174,11 +3190,11 @@
       <c r="C111" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>227</v>
       </c>
@@ -3188,11 +3204,11 @@
       <c r="C112" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D112" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>229</v>
       </c>
@@ -3202,11 +3218,11 @@
       <c r="C113" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D113" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>231</v>
       </c>
@@ -3216,11 +3232,11 @@
       <c r="C114" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>233</v>
       </c>
@@ -3230,11 +3246,11 @@
       <c r="C115" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>235</v>
       </c>
@@ -3244,11 +3260,11 @@
       <c r="C116" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D116" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>237</v>
       </c>
@@ -3258,11 +3274,11 @@
       <c r="C117" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D117" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>239</v>
       </c>
@@ -3272,11 +3288,11 @@
       <c r="C118" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D118" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>241</v>
       </c>
@@ -3286,11 +3302,11 @@
       <c r="C119" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D119" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>243</v>
       </c>
@@ -3300,11 +3316,11 @@
       <c r="C120" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D120" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>245</v>
       </c>
@@ -3314,11 +3330,11 @@
       <c r="C121" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D121" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>247</v>
       </c>
@@ -3328,11 +3344,11 @@
       <c r="C122" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D122" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>249</v>
       </c>
@@ -3342,11 +3358,11 @@
       <c r="C123" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D123" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+      <c r="D123" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>251</v>
       </c>
@@ -3356,11 +3372,11 @@
       <c r="C124" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D124" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>253</v>
       </c>
@@ -3370,11 +3386,11 @@
       <c r="C125" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D125" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>255</v>
       </c>
@@ -3384,11 +3400,11 @@
       <c r="C126" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D126" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+      <c r="D126" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>257</v>
       </c>
@@ -3398,11 +3414,11 @@
       <c r="C127" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D127" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>259</v>
       </c>
@@ -3412,11 +3428,11 @@
       <c r="C128" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D128" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+      <c r="D128" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>261</v>
       </c>
@@ -3426,11 +3442,11 @@
       <c r="C129" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D129" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>263</v>
       </c>
@@ -3440,11 +3456,11 @@
       <c r="C130" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D130" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>265</v>
       </c>
@@ -3454,11 +3470,11 @@
       <c r="C131" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D131" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
+      <c r="D131" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>267</v>
       </c>
@@ -3468,11 +3484,11 @@
       <c r="C132" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D132" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>269</v>
       </c>
@@ -3482,11 +3498,11 @@
       <c r="C133" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D133" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+      <c r="D133" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>271</v>
       </c>
@@ -3496,11 +3512,11 @@
       <c r="C134" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D134" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>273</v>
       </c>
@@ -3510,11 +3526,11 @@
       <c r="C135" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D135" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>275</v>
       </c>
@@ -3524,11 +3540,11 @@
       <c r="C136" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D136" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+      <c r="D136" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>277</v>
       </c>
@@ -3538,11 +3554,11 @@
       <c r="C137" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D137" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>279</v>
       </c>
@@ -3552,11 +3568,11 @@
       <c r="C138" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D138" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>281</v>
       </c>
@@ -3566,11 +3582,11 @@
       <c r="C139" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D139" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>283</v>
       </c>
@@ -3580,11 +3596,11 @@
       <c r="C140" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>285</v>
       </c>
@@ -3594,11 +3610,11 @@
       <c r="C141" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D141" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+      <c r="D141" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>287</v>
       </c>
@@ -3608,11 +3624,11 @@
       <c r="C142" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D142" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>289</v>
       </c>
@@ -3622,11 +3638,11 @@
       <c r="C143" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D143" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
+      <c r="D143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>291</v>
       </c>
@@ -3636,11 +3652,11 @@
       <c r="C144" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D144" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>293</v>
       </c>
@@ -3650,11 +3666,11 @@
       <c r="C145" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D145" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>295</v>
       </c>
@@ -3664,11 +3680,11 @@
       <c r="C146" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D146" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+      <c r="D146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>297</v>
       </c>
@@ -3678,11 +3694,11 @@
       <c r="C147" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D147" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>299</v>
       </c>
@@ -3692,11 +3708,11 @@
       <c r="C148" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D148" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>301</v>
       </c>
@@ -3706,11 +3722,11 @@
       <c r="C149" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D149" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+      <c r="D149" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>303</v>
       </c>
@@ -3720,11 +3736,11 @@
       <c r="C150" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D150" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+      <c r="D150" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>305</v>
       </c>
@@ -3734,11 +3750,11 @@
       <c r="C151" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D151" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+      <c r="D151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>307</v>
       </c>
@@ -3748,11 +3764,11 @@
       <c r="C152" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D152" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>310</v>
       </c>
@@ -3762,11 +3778,11 @@
       <c r="C153" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D153" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+      <c r="D153" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>312</v>
       </c>
@@ -3776,11 +3792,11 @@
       <c r="C154" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
+      <c r="D154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>314</v>
       </c>
@@ -3790,11 +3806,11 @@
       <c r="C155" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D155" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>316</v>
       </c>
@@ -3804,11 +3820,11 @@
       <c r="C156" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D156" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+      <c r="D156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>318</v>
       </c>
@@ -3818,11 +3834,11 @@
       <c r="C157" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D157" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+      <c r="D157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>320</v>
       </c>
@@ -3832,11 +3848,11 @@
       <c r="C158" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D158" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+      <c r="D158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>322</v>
       </c>
@@ -3846,11 +3862,11 @@
       <c r="C159" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D159" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+      <c r="D159" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>324</v>
       </c>
@@ -3860,11 +3876,11 @@
       <c r="C160" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D160" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>326</v>
       </c>
@@ -3874,8 +3890,11 @@
       <c r="C161" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
+      <c r="D161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>328</v>
       </c>
@@ -3885,11 +3904,11 @@
       <c r="C162" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D162" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
+      <c r="D162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>330</v>
       </c>
@@ -3899,11 +3918,11 @@
       <c r="C163" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D163" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
+      <c r="D163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>332</v>
       </c>
@@ -3913,11 +3932,11 @@
       <c r="C164" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D164" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
+      <c r="D164" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>334</v>
       </c>
@@ -3927,11 +3946,11 @@
       <c r="C165" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D165" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>336</v>
       </c>
@@ -3941,11 +3960,11 @@
       <c r="C166" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D166" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
+      <c r="D166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>338</v>
       </c>
@@ -3955,11 +3974,11 @@
       <c r="C167" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D167" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
+      <c r="D167" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>340</v>
       </c>
@@ -3969,11 +3988,11 @@
       <c r="C168" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D168" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>342</v>
       </c>
@@ -3983,11 +4002,11 @@
       <c r="C169" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D169" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>344</v>
       </c>
@@ -3997,11 +4016,11 @@
       <c r="C170" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D170" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>346</v>
       </c>
@@ -4011,11 +4030,11 @@
       <c r="C171" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D171" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
+      <c r="D171" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>348</v>
       </c>
@@ -4025,11 +4044,11 @@
       <c r="C172" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D172" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
+      <c r="D172" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>350</v>
       </c>
@@ -4039,11 +4058,11 @@
       <c r="C173" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D173" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
+      <c r="D173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>352</v>
       </c>
@@ -4053,11 +4072,11 @@
       <c r="C174" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D174" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
+      <c r="D174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>354</v>
       </c>
@@ -4067,11 +4086,11 @@
       <c r="C175" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D175" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
+      <c r="D175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>356</v>
       </c>
@@ -4081,11 +4100,11 @@
       <c r="C176" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D176" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
+      <c r="D176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>358</v>
       </c>
@@ -4095,11 +4114,11 @@
       <c r="C177" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D177" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
+      <c r="D177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>360</v>
       </c>
@@ -4109,11 +4128,11 @@
       <c r="C178" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D178" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>362</v>
       </c>
@@ -4123,11 +4142,11 @@
       <c r="C179" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+      <c r="D179" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>364</v>
       </c>
@@ -4137,11 +4156,11 @@
       <c r="C180" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D180" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
+      <c r="D180" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>366</v>
       </c>
@@ -4151,11 +4170,11 @@
       <c r="C181" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D181" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
+      <c r="D181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>368</v>
       </c>
@@ -4165,11 +4184,11 @@
       <c r="C182" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D182" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
+      <c r="D182" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>370</v>
       </c>
@@ -4179,11 +4198,11 @@
       <c r="C183" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D183" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>372</v>
       </c>
@@ -4193,25 +4212,25 @@
       <c r="C184" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D184" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
+      <c r="D184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D185" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>376</v>
       </c>
@@ -4221,11 +4240,11 @@
       <c r="C186" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D186" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
+      <c r="D186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>378</v>
       </c>
@@ -4235,11 +4254,11 @@
       <c r="C187" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D187" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
+      <c r="D187" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>380</v>
       </c>
@@ -4249,11 +4268,11 @@
       <c r="C188" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D188" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
+      <c r="D188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>382</v>
       </c>
@@ -4263,11 +4282,11 @@
       <c r="C189" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D189" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
+      <c r="D189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>384</v>
       </c>
@@ -4277,11 +4296,11 @@
       <c r="C190" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D190" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
+      <c r="D190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>386</v>
       </c>
@@ -4291,11 +4310,11 @@
       <c r="C191" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D191" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
+      <c r="D191" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>388</v>
       </c>
@@ -4305,11 +4324,11 @@
       <c r="C192" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D192" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
+      <c r="D192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>390</v>
       </c>
@@ -4319,11 +4338,11 @@
       <c r="C193" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D193" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
+      <c r="D193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>392</v>
       </c>
@@ -4333,11 +4352,11 @@
       <c r="C194" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D194" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>394</v>
       </c>
@@ -4347,11 +4366,11 @@
       <c r="C195" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D195" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
+      <c r="D195" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>396</v>
       </c>
@@ -4361,11 +4380,11 @@
       <c r="C196" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D196" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
+      <c r="D196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>398</v>
       </c>
@@ -4375,11 +4394,11 @@
       <c r="C197" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D197" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
+      <c r="D197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>400</v>
       </c>
@@ -4389,11 +4408,11 @@
       <c r="C198" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D198" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
+      <c r="D198" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>402</v>
       </c>
@@ -4403,11 +4422,11 @@
       <c r="C199" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D199" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
+      <c r="D199" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>404</v>
       </c>
@@ -4417,11 +4436,11 @@
       <c r="C200" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D200" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+      <c r="D200" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>406</v>
       </c>
@@ -4431,813 +4450,811 @@
       <c r="C201" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D201" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+      <c r="D201" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>